--- a/external/classic.xlsx
+++ b/external/classic.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\DMS_ISSUES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\23060884\Dropbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26835" windowHeight="13635" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26835" windowHeight="13635" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2796" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3454" uniqueCount="889">
   <si>
     <t>Armsman</t>
   </si>
@@ -1752,6 +1752,951 @@
   </si>
   <si>
     <t>1.26</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>cast</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>reuse</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>radius</t>
+  </si>
+  <si>
+    <t>Minor Rejuvenation</t>
+  </si>
+  <si>
+    <t>Friend</t>
+  </si>
+  <si>
+    <t>6 h</t>
+  </si>
+  <si>
+    <t>1 power</t>
+  </si>
+  <si>
+    <t>Minor Regeneracy</t>
+  </si>
+  <si>
+    <t>11 h</t>
+  </si>
+  <si>
+    <t>2 power</t>
+  </si>
+  <si>
+    <t>Minor Relief</t>
+  </si>
+  <si>
+    <t>16 h</t>
+  </si>
+  <si>
+    <t>3 power</t>
+  </si>
+  <si>
+    <t>Minor Restoration</t>
+  </si>
+  <si>
+    <t>23 h</t>
+  </si>
+  <si>
+    <t>4 power</t>
+  </si>
+  <si>
+    <t>Minor Recuperation</t>
+  </si>
+  <si>
+    <t>31 h</t>
+  </si>
+  <si>
+    <t>5 power</t>
+  </si>
+  <si>
+    <t>Minor Renewal</t>
+  </si>
+  <si>
+    <t>38 h</t>
+  </si>
+  <si>
+    <t>6 power</t>
+  </si>
+  <si>
+    <t>Minor Revival</t>
+  </si>
+  <si>
+    <t>48 h</t>
+  </si>
+  <si>
+    <t>8 power</t>
+  </si>
+  <si>
+    <t>Minor Resuscitation</t>
+  </si>
+  <si>
+    <t>60 h</t>
+  </si>
+  <si>
+    <t>10 power</t>
+  </si>
+  <si>
+    <t>Minor Reviction</t>
+  </si>
+  <si>
+    <t>75 h</t>
+  </si>
+  <si>
+    <t>12 power</t>
+  </si>
+  <si>
+    <t>Minor Refection</t>
+  </si>
+  <si>
+    <t>95 h</t>
+  </si>
+  <si>
+    <t>14 power</t>
+  </si>
+  <si>
+    <t>Minor Refocillation</t>
+  </si>
+  <si>
+    <t>119 h</t>
+  </si>
+  <si>
+    <t>17 power</t>
+  </si>
+  <si>
+    <t>2.2s</t>
+  </si>
+  <si>
+    <t>Regeneracy</t>
+  </si>
+  <si>
+    <t>26 h</t>
+  </si>
+  <si>
+    <t>Relief</t>
+  </si>
+  <si>
+    <t>36 h</t>
+  </si>
+  <si>
+    <t>Restoration</t>
+  </si>
+  <si>
+    <t>50 h</t>
+  </si>
+  <si>
+    <t>9 power</t>
+  </si>
+  <si>
+    <t>Recuperation</t>
+  </si>
+  <si>
+    <t>65 h</t>
+  </si>
+  <si>
+    <t>11 power</t>
+  </si>
+  <si>
+    <t>Renewal</t>
+  </si>
+  <si>
+    <t>85 h</t>
+  </si>
+  <si>
+    <t>15 power</t>
+  </si>
+  <si>
+    <t>Revival</t>
+  </si>
+  <si>
+    <t>109 h</t>
+  </si>
+  <si>
+    <t>19 power</t>
+  </si>
+  <si>
+    <t>Resuscitation</t>
+  </si>
+  <si>
+    <t>138 h</t>
+  </si>
+  <si>
+    <t>25 power</t>
+  </si>
+  <si>
+    <t>Reviction</t>
+  </si>
+  <si>
+    <t>158 h</t>
+  </si>
+  <si>
+    <t>28 power</t>
+  </si>
+  <si>
+    <t>Refection</t>
+  </si>
+  <si>
+    <t>183 h</t>
+  </si>
+  <si>
+    <t>33 power</t>
+  </si>
+  <si>
+    <t>Refocillation</t>
+  </si>
+  <si>
+    <t>231 h</t>
+  </si>
+  <si>
+    <t>42 power</t>
+  </si>
+  <si>
+    <t>2.8s</t>
+  </si>
+  <si>
+    <t>Angelic Commendation</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>33 h</t>
+  </si>
+  <si>
+    <t>Angelic Benediction</t>
+  </si>
+  <si>
+    <t>53 h</t>
+  </si>
+  <si>
+    <t>21 power</t>
+  </si>
+  <si>
+    <t>Angelic Blessing</t>
+  </si>
+  <si>
+    <t>73 h</t>
+  </si>
+  <si>
+    <t>24 power</t>
+  </si>
+  <si>
+    <t>Angelic Approbation</t>
+  </si>
+  <si>
+    <t>93 h</t>
+  </si>
+  <si>
+    <t>3.0s</t>
+  </si>
+  <si>
+    <t>Revive</t>
+  </si>
+  <si>
+    <t>Corpse</t>
+  </si>
+  <si>
+    <t>4.0s/0s/0s</t>
+  </si>
+  <si>
+    <t>Rng: 1500</t>
+  </si>
+  <si>
+    <t>0% p/10% hp</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>4.0s</t>
+  </si>
+  <si>
+    <t>dmgtype</t>
+  </si>
+  <si>
+    <t>Major Restoration</t>
+  </si>
+  <si>
+    <t>55 h</t>
+  </si>
+  <si>
+    <t>Major Recuperation</t>
+  </si>
+  <si>
+    <t>82 h</t>
+  </si>
+  <si>
+    <t>Major Renewal</t>
+  </si>
+  <si>
+    <t>20 power</t>
+  </si>
+  <si>
+    <t>Major Revival</t>
+  </si>
+  <si>
+    <t>136 h</t>
+  </si>
+  <si>
+    <t>Major Resuscitation</t>
+  </si>
+  <si>
+    <t>172 h</t>
+  </si>
+  <si>
+    <t>30 power</t>
+  </si>
+  <si>
+    <t>Major Reviction</t>
+  </si>
+  <si>
+    <t>235 h</t>
+  </si>
+  <si>
+    <t>39 power</t>
+  </si>
+  <si>
+    <t>Major Refection</t>
+  </si>
+  <si>
+    <t>307 h</t>
+  </si>
+  <si>
+    <t>48 power</t>
+  </si>
+  <si>
+    <t>Major Refocillation</t>
+  </si>
+  <si>
+    <t>396 h</t>
+  </si>
+  <si>
+    <t>58 power</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>Greater Recuperation</t>
+  </si>
+  <si>
+    <t>145 h</t>
+  </si>
+  <si>
+    <t>29 power</t>
+  </si>
+  <si>
+    <t>Greater Renewal</t>
+  </si>
+  <si>
+    <t>197 h</t>
+  </si>
+  <si>
+    <t>Greater Revival</t>
+  </si>
+  <si>
+    <t>263 h</t>
+  </si>
+  <si>
+    <t>52 power</t>
+  </si>
+  <si>
+    <t>Greater Resuscitation</t>
+  </si>
+  <si>
+    <t>341 h</t>
+  </si>
+  <si>
+    <t>68 power</t>
+  </si>
+  <si>
+    <t>Greater Reviction</t>
+  </si>
+  <si>
+    <t>432 h</t>
+  </si>
+  <si>
+    <t>86 power</t>
+  </si>
+  <si>
+    <t>Greater Refection</t>
+  </si>
+  <si>
+    <t>549 h</t>
+  </si>
+  <si>
+    <t>109 power</t>
+  </si>
+  <si>
+    <t>Greater Refocillation</t>
+  </si>
+  <si>
+    <t>667 h</t>
+  </si>
+  <si>
+    <t>133 power</t>
+  </si>
+  <si>
+    <t>3.6s</t>
+  </si>
+  <si>
+    <t>3.5s</t>
+  </si>
+  <si>
+    <t>3.4s</t>
+  </si>
+  <si>
+    <t>3.3s</t>
+  </si>
+  <si>
+    <t>3.1s</t>
+  </si>
+  <si>
+    <t>Heaven's Commendation</t>
+  </si>
+  <si>
+    <t>97 h</t>
+  </si>
+  <si>
+    <t>Heaven's Benediction</t>
+  </si>
+  <si>
+    <t>163 h</t>
+  </si>
+  <si>
+    <t>65 power</t>
+  </si>
+  <si>
+    <t>Heaven's Blessing</t>
+  </si>
+  <si>
+    <t>223 h</t>
+  </si>
+  <si>
+    <t>82 power</t>
+  </si>
+  <si>
+    <t>Heaven's Approbation</t>
+  </si>
+  <si>
+    <t>283 h</t>
+  </si>
+  <si>
+    <t>97 power</t>
+  </si>
+  <si>
+    <t>3.7s</t>
+  </si>
+  <si>
+    <t>Raise Fallen</t>
+  </si>
+  <si>
+    <t>10% p/30% hp</t>
+  </si>
+  <si>
+    <t>Reincarnate</t>
+  </si>
+  <si>
+    <t>25% p/50% hp</t>
+  </si>
+  <si>
+    <t>Resurrection</t>
+  </si>
+  <si>
+    <t>50% p/100% hp</t>
+  </si>
+  <si>
+    <t>Cure Poison</t>
+  </si>
+  <si>
+    <t>6% power</t>
+  </si>
+  <si>
+    <t>Cure Disease</t>
+  </si>
+  <si>
+    <t>3.2s</t>
+  </si>
+  <si>
+    <t>Gift of the Heavens</t>
+  </si>
+  <si>
+    <t>0 power</t>
+  </si>
+  <si>
+    <t>Boon of the Heavens</t>
+  </si>
+  <si>
+    <t>Favor of the Heavens</t>
+  </si>
+  <si>
+    <t>Blessing of the Heavens</t>
+  </si>
+  <si>
+    <t>Beautified Remedy</t>
+  </si>
+  <si>
+    <t>Glorious Remedy</t>
+  </si>
+  <si>
+    <t>Magnificent Remedy</t>
+  </si>
+  <si>
+    <t>Gift of the Host</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>187 h</t>
+  </si>
+  <si>
+    <t>79 power</t>
+  </si>
+  <si>
+    <t>Boon of the Host</t>
+  </si>
+  <si>
+    <t>241 h</t>
+  </si>
+  <si>
+    <t>95 power</t>
+  </si>
+  <si>
+    <t>Blessing of the Host</t>
+  </si>
+  <si>
+    <t>295 h</t>
+  </si>
+  <si>
+    <t>110 power</t>
+  </si>
+  <si>
+    <t>15m</t>
+  </si>
+  <si>
+    <t>20m</t>
+  </si>
+  <si>
+    <t>0s</t>
+  </si>
+  <si>
+    <t>Blessed Encouragement</t>
+  </si>
+  <si>
+    <t>61 power</t>
+  </si>
+  <si>
+    <t>Holy Encouragment</t>
+  </si>
+  <si>
+    <t>Champion's Encouragment</t>
+  </si>
+  <si>
+    <t>94 power</t>
+  </si>
+  <si>
+    <t>15s</t>
+  </si>
+  <si>
+    <t>Aura of Protection</t>
+  </si>
+  <si>
+    <t>4.0s/20m/0s</t>
+  </si>
+  <si>
+    <t>14 af</t>
+  </si>
+  <si>
+    <t>Aura of Deflection</t>
+  </si>
+  <si>
+    <t>19 af</t>
+  </si>
+  <si>
+    <t>Aura of Safety</t>
+  </si>
+  <si>
+    <t>24 af</t>
+  </si>
+  <si>
+    <t>Aura of Defense</t>
+  </si>
+  <si>
+    <t>30 af</t>
+  </si>
+  <si>
+    <t>Aura of Indestructability</t>
+  </si>
+  <si>
+    <t>37 af</t>
+  </si>
+  <si>
+    <t>Aura of Invincibility</t>
+  </si>
+  <si>
+    <t>46 af</t>
+  </si>
+  <si>
+    <t>23 power</t>
+  </si>
+  <si>
+    <t>Aura of Salvation</t>
+  </si>
+  <si>
+    <t>56 af</t>
+  </si>
+  <si>
+    <t>Minor Refreshment</t>
+  </si>
+  <si>
+    <t>3 h</t>
+  </si>
+  <si>
+    <t>Lesser Refreshment</t>
+  </si>
+  <si>
+    <t>5 h</t>
+  </si>
+  <si>
+    <t>Refreshment</t>
+  </si>
+  <si>
+    <t>8 h</t>
+  </si>
+  <si>
+    <t>Major Refreshment</t>
+  </si>
+  <si>
+    <t>Greater Refreshment</t>
+  </si>
+  <si>
+    <t>14 h</t>
+  </si>
+  <si>
+    <t>Crusader's Refreshment</t>
+  </si>
+  <si>
+    <t>17 h</t>
+  </si>
+  <si>
+    <t>Saint's Refreshment</t>
+  </si>
+  <si>
+    <t>22 h</t>
+  </si>
+  <si>
+    <t>Angel's Refreshment</t>
+  </si>
+  <si>
+    <t>29 h</t>
+  </si>
+  <si>
+    <t>Archangel's Refreshment</t>
+  </si>
+  <si>
+    <t>37 h</t>
+  </si>
+  <si>
+    <t>Battle Fervor</t>
+  </si>
+  <si>
+    <t>0s (Pulse)/6s/8s</t>
+  </si>
+  <si>
+    <t>Greater Battle Fervor</t>
+  </si>
+  <si>
+    <t>Battle Vigor</t>
+  </si>
+  <si>
+    <t>Greater Battle Vigor</t>
+  </si>
+  <si>
+    <t>Battle Fury</t>
+  </si>
+  <si>
+    <t>Greater Battle Fury</t>
+  </si>
+  <si>
+    <t>Battle Zeal</t>
+  </si>
+  <si>
+    <t>Greater Battle Zeal</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>1.0 dps</t>
+  </si>
+  <si>
+    <t>1.6 dps</t>
+  </si>
+  <si>
+    <t>2.1 dps</t>
+  </si>
+  <si>
+    <t>2.8 dps</t>
+  </si>
+  <si>
+    <t>3.7 dps</t>
+  </si>
+  <si>
+    <t>4.8 dps</t>
+  </si>
+  <si>
+    <t>6.0 dps</t>
+  </si>
+  <si>
+    <t>7.5 dps</t>
+  </si>
+  <si>
+    <t>8s</t>
+  </si>
+  <si>
+    <t>6s</t>
+  </si>
+  <si>
+    <t>Chant of Endurance</t>
+  </si>
+  <si>
+    <t>Chant of Stamina</t>
+  </si>
+  <si>
+    <t>2 end regen</t>
+  </si>
+  <si>
+    <t>Chant of Persistence</t>
+  </si>
+  <si>
+    <t>3 end regen</t>
+  </si>
+  <si>
+    <t>Chant of Resilience</t>
+  </si>
+  <si>
+    <t>4 end regen</t>
+  </si>
+  <si>
+    <t>Chant of Perseverance</t>
+  </si>
+  <si>
+    <t>5 end regen</t>
+  </si>
+  <si>
+    <t>1 end/p</t>
+  </si>
+  <si>
+    <t>2 power/p</t>
+  </si>
+  <si>
+    <t>5 power/p</t>
+  </si>
+  <si>
+    <t>7 power/p</t>
+  </si>
+  <si>
+    <t>11 power/p</t>
+  </si>
+  <si>
+    <t>14 power/p</t>
+  </si>
+  <si>
+    <t>5s</t>
+  </si>
+  <si>
+    <t>Crusader's Ward</t>
+  </si>
+  <si>
+    <t>Crusader's Shield</t>
+  </si>
+  <si>
+    <t>33 af</t>
+  </si>
+  <si>
+    <t>Crusader's Guard</t>
+  </si>
+  <si>
+    <t>40 af</t>
+  </si>
+  <si>
+    <t>Crusader's Barrier</t>
+  </si>
+  <si>
+    <t>51 af</t>
+  </si>
+  <si>
+    <t>Crusader's Defense</t>
+  </si>
+  <si>
+    <t>61 af</t>
+  </si>
+  <si>
+    <t>Crusader's Shelter</t>
+  </si>
+  <si>
+    <t>75 af</t>
+  </si>
+  <si>
+    <t>Crusader's Protection</t>
+  </si>
+  <si>
+    <t>99 af</t>
+  </si>
+  <si>
+    <t>Crusader's Mantle</t>
+  </si>
+  <si>
+    <t>127 af</t>
+  </si>
+  <si>
+    <t>Enemy</t>
+  </si>
+  <si>
+    <t>0s/0s/30s</t>
+  </si>
+  <si>
+    <t>Rng: 1350</t>
+  </si>
+  <si>
+    <t>5.2 agg</t>
+  </si>
+  <si>
+    <t>Aggravate</t>
+  </si>
+  <si>
+    <t>17.1 agg</t>
+  </si>
+  <si>
+    <t>38.7 agg</t>
+  </si>
+  <si>
+    <t>Infuriate</t>
+  </si>
+  <si>
+    <t>55.6 agg</t>
+  </si>
+  <si>
+    <t>Body Ward</t>
+  </si>
+  <si>
+    <t>0s (Pulse)/5s/8s</t>
+  </si>
+  <si>
+    <t>+10% body</t>
+  </si>
+  <si>
+    <t>Mind Ward</t>
+  </si>
+  <si>
+    <t>Energy Ward</t>
+  </si>
+  <si>
+    <t>Heat Ward</t>
+  </si>
+  <si>
+    <t>+10% heat</t>
+  </si>
+  <si>
+    <t>Cold Ward</t>
+  </si>
+  <si>
+    <t>+10% cold</t>
+  </si>
+  <si>
+    <t>Earth Ward</t>
+  </si>
+  <si>
+    <t>Body Shield</t>
+  </si>
+  <si>
+    <t>+20% body</t>
+  </si>
+  <si>
+    <t>Mind Shield</t>
+  </si>
+  <si>
+    <t>Energy Shield</t>
+  </si>
+  <si>
+    <t>Heat Shield</t>
+  </si>
+  <si>
+    <t>+20% heat</t>
+  </si>
+  <si>
+    <t>Cold Shield</t>
+  </si>
+  <si>
+    <t>+20% cold</t>
+  </si>
+  <si>
+    <t>Earth Shield</t>
+  </si>
+  <si>
+    <t>Soul Ward</t>
+  </si>
+  <si>
+    <t>+5% b/s/e</t>
+  </si>
+  <si>
+    <t>Elemental Ward</t>
+  </si>
+  <si>
+    <t>+5% h/c/m</t>
+  </si>
+  <si>
+    <t>Soul Shield</t>
+  </si>
+  <si>
+    <t>+10% b/s/e</t>
+  </si>
+  <si>
+    <t>Elemental Shield</t>
+  </si>
+  <si>
+    <t>+10% h/c/m</t>
+  </si>
+  <si>
+    <t>+10% spirit</t>
+  </si>
+  <si>
+    <t>+10% enrgy</t>
+  </si>
+  <si>
+    <t>+10% matter</t>
+  </si>
+  <si>
+    <t>+20% spirit</t>
+  </si>
+  <si>
+    <t>+20% matter</t>
+  </si>
+  <si>
+    <t>+20% enrgy</t>
+  </si>
+  <si>
+    <t>8 power/p</t>
+  </si>
+  <si>
+    <t>9 power/p</t>
+  </si>
+  <si>
+    <t>15 power/p</t>
+  </si>
+  <si>
+    <t>16 power/p</t>
   </si>
 </sst>
 </file>
@@ -1787,9 +2732,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3251,12 +4197,3059 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L122"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="V33" activeCellId="1" sqref="AA44 V15:Z33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>574</v>
+      </c>
+      <c r="E1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F1" t="s">
+        <v>576</v>
+      </c>
+      <c r="G1" t="s">
+        <v>577</v>
+      </c>
+      <c r="H1" t="s">
+        <v>578</v>
+      </c>
+      <c r="I1" t="s">
+        <v>579</v>
+      </c>
+      <c r="J1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>759</v>
+      </c>
+      <c r="D2" t="s">
+        <v>741</v>
+      </c>
+      <c r="E2" t="s">
+        <v>760</v>
+      </c>
+      <c r="J2" t="s">
+        <v>761</v>
+      </c>
+      <c r="K2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>762</v>
+      </c>
+      <c r="D3" t="s">
+        <v>741</v>
+      </c>
+      <c r="E3" t="s">
+        <v>760</v>
+      </c>
+      <c r="J3" t="s">
+        <v>763</v>
+      </c>
+      <c r="K3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>764</v>
+      </c>
+      <c r="D4" t="s">
+        <v>741</v>
+      </c>
+      <c r="E4" t="s">
+        <v>760</v>
+      </c>
+      <c r="J4" t="s">
+        <v>765</v>
+      </c>
+      <c r="K4" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>766</v>
+      </c>
+      <c r="D5" t="s">
+        <v>741</v>
+      </c>
+      <c r="E5" t="s">
+        <v>760</v>
+      </c>
+      <c r="J5" t="s">
+        <v>767</v>
+      </c>
+      <c r="K5" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>768</v>
+      </c>
+      <c r="D6" t="s">
+        <v>741</v>
+      </c>
+      <c r="E6" t="s">
+        <v>760</v>
+      </c>
+      <c r="J6" t="s">
+        <v>769</v>
+      </c>
+      <c r="K6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>770</v>
+      </c>
+      <c r="D7" t="s">
+        <v>741</v>
+      </c>
+      <c r="E7" t="s">
+        <v>760</v>
+      </c>
+      <c r="J7" t="s">
+        <v>771</v>
+      </c>
+      <c r="K7" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>773</v>
+      </c>
+      <c r="D8" t="s">
+        <v>741</v>
+      </c>
+      <c r="E8" t="s">
+        <v>760</v>
+      </c>
+      <c r="J8" t="s">
+        <v>774</v>
+      </c>
+      <c r="K8" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>775</v>
+      </c>
+      <c r="D9" t="s">
+        <v>645</v>
+      </c>
+      <c r="E9" t="s">
+        <v>752</v>
+      </c>
+      <c r="G9" t="s">
+        <v>810</v>
+      </c>
+      <c r="H9">
+        <v>1500</v>
+      </c>
+      <c r="J9" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>777</v>
+      </c>
+      <c r="D10" t="s">
+        <v>645</v>
+      </c>
+      <c r="E10" t="s">
+        <v>752</v>
+      </c>
+      <c r="G10" t="s">
+        <v>810</v>
+      </c>
+      <c r="H10">
+        <v>1500</v>
+      </c>
+      <c r="J10" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>779</v>
+      </c>
+      <c r="D11" t="s">
+        <v>645</v>
+      </c>
+      <c r="E11" t="s">
+        <v>752</v>
+      </c>
+      <c r="G11" t="s">
+        <v>810</v>
+      </c>
+      <c r="H11">
+        <v>1500</v>
+      </c>
+      <c r="J11" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>781</v>
+      </c>
+      <c r="D12" t="s">
+        <v>645</v>
+      </c>
+      <c r="E12" t="s">
+        <v>752</v>
+      </c>
+      <c r="G12" t="s">
+        <v>810</v>
+      </c>
+      <c r="H12">
+        <v>1500</v>
+      </c>
+      <c r="J12" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>782</v>
+      </c>
+      <c r="D13" t="s">
+        <v>645</v>
+      </c>
+      <c r="E13" t="s">
+        <v>752</v>
+      </c>
+      <c r="G13" t="s">
+        <v>810</v>
+      </c>
+      <c r="H13">
+        <v>1500</v>
+      </c>
+      <c r="J13" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>784</v>
+      </c>
+      <c r="D14" t="s">
+        <v>645</v>
+      </c>
+      <c r="E14" t="s">
+        <v>752</v>
+      </c>
+      <c r="G14" t="s">
+        <v>810</v>
+      </c>
+      <c r="H14">
+        <v>1500</v>
+      </c>
+      <c r="J14" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>786</v>
+      </c>
+      <c r="D15" t="s">
+        <v>645</v>
+      </c>
+      <c r="E15" t="s">
+        <v>752</v>
+      </c>
+      <c r="G15" t="s">
+        <v>810</v>
+      </c>
+      <c r="H15">
+        <v>1500</v>
+      </c>
+      <c r="J15" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>788</v>
+      </c>
+      <c r="D16" t="s">
+        <v>645</v>
+      </c>
+      <c r="E16" t="s">
+        <v>752</v>
+      </c>
+      <c r="G16" t="s">
+        <v>810</v>
+      </c>
+      <c r="H16">
+        <v>1500</v>
+      </c>
+      <c r="J16" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>790</v>
+      </c>
+      <c r="D17" t="s">
+        <v>645</v>
+      </c>
+      <c r="E17" t="s">
+        <v>752</v>
+      </c>
+      <c r="G17" t="s">
+        <v>810</v>
+      </c>
+      <c r="H17">
+        <v>1500</v>
+      </c>
+      <c r="J17" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>792</v>
+      </c>
+      <c r="D18" t="s">
+        <v>645</v>
+      </c>
+      <c r="E18" t="s">
+        <v>752</v>
+      </c>
+      <c r="F18" t="s">
+        <v>811</v>
+      </c>
+      <c r="G18" t="s">
+        <v>810</v>
+      </c>
+      <c r="H18">
+        <v>1500</v>
+      </c>
+      <c r="J18" t="s">
+        <v>802</v>
+      </c>
+      <c r="L18" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>794</v>
+      </c>
+      <c r="D19" t="s">
+        <v>645</v>
+      </c>
+      <c r="E19" t="s">
+        <v>752</v>
+      </c>
+      <c r="F19" t="s">
+        <v>811</v>
+      </c>
+      <c r="G19" t="s">
+        <v>810</v>
+      </c>
+      <c r="H19">
+        <v>1500</v>
+      </c>
+      <c r="J19" t="s">
+        <v>803</v>
+      </c>
+      <c r="L19" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>795</v>
+      </c>
+      <c r="D20" t="s">
+        <v>645</v>
+      </c>
+      <c r="E20" t="s">
+        <v>752</v>
+      </c>
+      <c r="F20" t="s">
+        <v>811</v>
+      </c>
+      <c r="G20" t="s">
+        <v>810</v>
+      </c>
+      <c r="H20">
+        <v>1500</v>
+      </c>
+      <c r="J20" t="s">
+        <v>804</v>
+      </c>
+      <c r="L20" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>796</v>
+      </c>
+      <c r="D21" t="s">
+        <v>645</v>
+      </c>
+      <c r="E21" t="s">
+        <v>752</v>
+      </c>
+      <c r="F21" t="s">
+        <v>811</v>
+      </c>
+      <c r="G21" t="s">
+        <v>810</v>
+      </c>
+      <c r="H21">
+        <v>1500</v>
+      </c>
+      <c r="J21" t="s">
+        <v>805</v>
+      </c>
+      <c r="L21" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>797</v>
+      </c>
+      <c r="D22" t="s">
+        <v>645</v>
+      </c>
+      <c r="E22" t="s">
+        <v>752</v>
+      </c>
+      <c r="F22" t="s">
+        <v>811</v>
+      </c>
+      <c r="G22" t="s">
+        <v>810</v>
+      </c>
+      <c r="H22">
+        <v>1500</v>
+      </c>
+      <c r="J22" t="s">
+        <v>806</v>
+      </c>
+      <c r="L22" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>798</v>
+      </c>
+      <c r="D23" t="s">
+        <v>645</v>
+      </c>
+      <c r="E23" t="s">
+        <v>752</v>
+      </c>
+      <c r="F23" t="s">
+        <v>811</v>
+      </c>
+      <c r="G23" t="s">
+        <v>810</v>
+      </c>
+      <c r="H23">
+        <v>1500</v>
+      </c>
+      <c r="J23" t="s">
+        <v>807</v>
+      </c>
+      <c r="L23" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>799</v>
+      </c>
+      <c r="D24" t="s">
+        <v>645</v>
+      </c>
+      <c r="E24" t="s">
+        <v>752</v>
+      </c>
+      <c r="F24" t="s">
+        <v>811</v>
+      </c>
+      <c r="G24" t="s">
+        <v>810</v>
+      </c>
+      <c r="H24">
+        <v>1500</v>
+      </c>
+      <c r="J24" t="s">
+        <v>808</v>
+      </c>
+      <c r="L24" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>800</v>
+      </c>
+      <c r="D25" t="s">
+        <v>645</v>
+      </c>
+      <c r="E25" t="s">
+        <v>752</v>
+      </c>
+      <c r="F25" t="s">
+        <v>811</v>
+      </c>
+      <c r="G25" t="s">
+        <v>810</v>
+      </c>
+      <c r="H25">
+        <v>1500</v>
+      </c>
+      <c r="J25" t="s">
+        <v>809</v>
+      </c>
+      <c r="L25" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>812</v>
+      </c>
+      <c r="D26" t="s">
+        <v>645</v>
+      </c>
+      <c r="E26" t="s">
+        <v>752</v>
+      </c>
+      <c r="F26" t="s">
+        <v>827</v>
+      </c>
+      <c r="J26" t="s">
+        <v>821</v>
+      </c>
+      <c r="K26" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>813</v>
+      </c>
+      <c r="D27" t="s">
+        <v>645</v>
+      </c>
+      <c r="E27" t="s">
+        <v>752</v>
+      </c>
+      <c r="F27" t="s">
+        <v>827</v>
+      </c>
+      <c r="J27" t="s">
+        <v>814</v>
+      </c>
+      <c r="K27" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
+        <v>815</v>
+      </c>
+      <c r="D28" t="s">
+        <v>645</v>
+      </c>
+      <c r="E28" t="s">
+        <v>752</v>
+      </c>
+      <c r="F28" t="s">
+        <v>827</v>
+      </c>
+      <c r="J28" t="s">
+        <v>816</v>
+      </c>
+      <c r="K28" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>817</v>
+      </c>
+      <c r="D29" t="s">
+        <v>645</v>
+      </c>
+      <c r="E29" t="s">
+        <v>752</v>
+      </c>
+      <c r="F29" t="s">
+        <v>827</v>
+      </c>
+      <c r="J29" t="s">
+        <v>818</v>
+      </c>
+      <c r="K29" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>819</v>
+      </c>
+      <c r="D30" t="s">
+        <v>645</v>
+      </c>
+      <c r="E30" t="s">
+        <v>752</v>
+      </c>
+      <c r="F30" t="s">
+        <v>827</v>
+      </c>
+      <c r="J30" t="s">
+        <v>820</v>
+      </c>
+      <c r="K30" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>828</v>
+      </c>
+      <c r="D31" t="s">
+        <v>645</v>
+      </c>
+      <c r="E31" t="s">
+        <v>793</v>
+      </c>
+      <c r="F31" t="s">
+        <v>659</v>
+      </c>
+      <c r="J31" t="s">
+        <v>765</v>
+      </c>
+      <c r="K31" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>829</v>
+      </c>
+      <c r="D32" t="s">
+        <v>645</v>
+      </c>
+      <c r="E32" t="s">
+        <v>793</v>
+      </c>
+      <c r="F32" t="s">
+        <v>659</v>
+      </c>
+      <c r="J32" t="s">
+        <v>830</v>
+      </c>
+      <c r="K32" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>831</v>
+      </c>
+      <c r="D33" t="s">
+        <v>645</v>
+      </c>
+      <c r="E33" t="s">
+        <v>793</v>
+      </c>
+      <c r="F33" t="s">
+        <v>659</v>
+      </c>
+      <c r="J33" t="s">
+        <v>832</v>
+      </c>
+      <c r="K33" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>18</v>
+      </c>
+      <c r="C34" t="s">
+        <v>833</v>
+      </c>
+      <c r="D34" t="s">
+        <v>645</v>
+      </c>
+      <c r="E34" t="s">
+        <v>793</v>
+      </c>
+      <c r="F34" t="s">
+        <v>659</v>
+      </c>
+      <c r="J34" t="s">
+        <v>834</v>
+      </c>
+      <c r="K34" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>23</v>
+      </c>
+      <c r="C35" t="s">
+        <v>835</v>
+      </c>
+      <c r="D35" t="s">
+        <v>645</v>
+      </c>
+      <c r="E35" t="s">
+        <v>793</v>
+      </c>
+      <c r="F35" t="s">
+        <v>659</v>
+      </c>
+      <c r="J35" t="s">
+        <v>836</v>
+      </c>
+      <c r="K35" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>29</v>
+      </c>
+      <c r="C36" t="s">
+        <v>837</v>
+      </c>
+      <c r="D36" t="s">
+        <v>645</v>
+      </c>
+      <c r="E36" t="s">
+        <v>793</v>
+      </c>
+      <c r="F36" t="s">
+        <v>659</v>
+      </c>
+      <c r="J36" t="s">
+        <v>838</v>
+      </c>
+      <c r="K36" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>839</v>
+      </c>
+      <c r="D37" t="s">
+        <v>645</v>
+      </c>
+      <c r="E37" t="s">
+        <v>793</v>
+      </c>
+      <c r="F37" t="s">
+        <v>659</v>
+      </c>
+      <c r="J37" t="s">
+        <v>840</v>
+      </c>
+      <c r="K37" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>48</v>
+      </c>
+      <c r="C38" t="s">
+        <v>841</v>
+      </c>
+      <c r="D38" t="s">
+        <v>645</v>
+      </c>
+      <c r="E38" t="s">
+        <v>793</v>
+      </c>
+      <c r="F38" t="s">
+        <v>659</v>
+      </c>
+      <c r="J38" t="s">
+        <v>842</v>
+      </c>
+      <c r="K38" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>492</v>
+      </c>
+      <c r="D39" t="s">
+        <v>843</v>
+      </c>
+      <c r="E39" t="s">
+        <v>844</v>
+      </c>
+      <c r="F39" t="s">
+        <v>845</v>
+      </c>
+      <c r="J39" t="s">
+        <v>846</v>
+      </c>
+      <c r="K39" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>847</v>
+      </c>
+      <c r="D40" t="s">
+        <v>843</v>
+      </c>
+      <c r="E40" t="s">
+        <v>844</v>
+      </c>
+      <c r="F40" t="s">
+        <v>845</v>
+      </c>
+      <c r="J40" t="s">
+        <v>848</v>
+      </c>
+      <c r="K40" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>30</v>
+      </c>
+      <c r="C41" t="s">
+        <v>166</v>
+      </c>
+      <c r="D41" t="s">
+        <v>843</v>
+      </c>
+      <c r="E41" t="s">
+        <v>844</v>
+      </c>
+      <c r="F41" t="s">
+        <v>845</v>
+      </c>
+      <c r="J41" t="s">
+        <v>849</v>
+      </c>
+      <c r="K41" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>850</v>
+      </c>
+      <c r="D42" t="s">
+        <v>843</v>
+      </c>
+      <c r="E42" t="s">
+        <v>844</v>
+      </c>
+      <c r="F42" t="s">
+        <v>845</v>
+      </c>
+      <c r="J42" t="s">
+        <v>851</v>
+      </c>
+      <c r="K42" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>25</v>
+      </c>
+      <c r="C43" t="s">
+        <v>852</v>
+      </c>
+      <c r="D43" t="s">
+        <v>645</v>
+      </c>
+      <c r="E43" t="s">
+        <v>853</v>
+      </c>
+      <c r="F43" t="s">
+        <v>659</v>
+      </c>
+      <c r="J43" t="s">
+        <v>854</v>
+      </c>
+      <c r="K43" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>26</v>
+      </c>
+      <c r="C44" t="s">
+        <v>855</v>
+      </c>
+      <c r="D44" t="s">
+        <v>645</v>
+      </c>
+      <c r="E44" t="s">
+        <v>853</v>
+      </c>
+      <c r="F44" t="s">
+        <v>659</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="K44" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>27</v>
+      </c>
+      <c r="C45" t="s">
+        <v>856</v>
+      </c>
+      <c r="D45" t="s">
+        <v>645</v>
+      </c>
+      <c r="E45" t="s">
+        <v>853</v>
+      </c>
+      <c r="F45" t="s">
+        <v>659</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="K45" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>28</v>
+      </c>
+      <c r="C46" t="s">
+        <v>857</v>
+      </c>
+      <c r="D46" t="s">
+        <v>645</v>
+      </c>
+      <c r="E46" t="s">
+        <v>853</v>
+      </c>
+      <c r="F46" t="s">
+        <v>659</v>
+      </c>
+      <c r="J46" t="s">
+        <v>858</v>
+      </c>
+      <c r="K46" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>29</v>
+      </c>
+      <c r="C47" t="s">
+        <v>859</v>
+      </c>
+      <c r="D47" t="s">
+        <v>645</v>
+      </c>
+      <c r="E47" t="s">
+        <v>853</v>
+      </c>
+      <c r="F47" t="s">
+        <v>659</v>
+      </c>
+      <c r="J47" t="s">
+        <v>860</v>
+      </c>
+      <c r="K47" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>30</v>
+      </c>
+      <c r="C48" t="s">
+        <v>861</v>
+      </c>
+      <c r="D48" t="s">
+        <v>645</v>
+      </c>
+      <c r="E48" t="s">
+        <v>853</v>
+      </c>
+      <c r="F48" t="s">
+        <v>659</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="K48" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>44</v>
+      </c>
+      <c r="C49" t="s">
+        <v>862</v>
+      </c>
+      <c r="D49" t="s">
+        <v>645</v>
+      </c>
+      <c r="E49" t="s">
+        <v>853</v>
+      </c>
+      <c r="F49" t="s">
+        <v>659</v>
+      </c>
+      <c r="J49" t="s">
+        <v>863</v>
+      </c>
+      <c r="K49" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>45</v>
+      </c>
+      <c r="C50" t="s">
+        <v>864</v>
+      </c>
+      <c r="D50" t="s">
+        <v>645</v>
+      </c>
+      <c r="E50" t="s">
+        <v>853</v>
+      </c>
+      <c r="F50" t="s">
+        <v>659</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="K50" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>46</v>
+      </c>
+      <c r="C51" t="s">
+        <v>865</v>
+      </c>
+      <c r="D51" t="s">
+        <v>645</v>
+      </c>
+      <c r="E51" t="s">
+        <v>853</v>
+      </c>
+      <c r="F51" t="s">
+        <v>659</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="K51" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>47</v>
+      </c>
+      <c r="C52" t="s">
+        <v>866</v>
+      </c>
+      <c r="D52" t="s">
+        <v>645</v>
+      </c>
+      <c r="E52" t="s">
+        <v>853</v>
+      </c>
+      <c r="F52" t="s">
+        <v>659</v>
+      </c>
+      <c r="J52" t="s">
+        <v>867</v>
+      </c>
+      <c r="K52" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>48</v>
+      </c>
+      <c r="C53" t="s">
+        <v>868</v>
+      </c>
+      <c r="D53" t="s">
+        <v>645</v>
+      </c>
+      <c r="E53" t="s">
+        <v>853</v>
+      </c>
+      <c r="F53" t="s">
+        <v>659</v>
+      </c>
+      <c r="J53" t="s">
+        <v>869</v>
+      </c>
+      <c r="K53" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>49</v>
+      </c>
+      <c r="C54" t="s">
+        <v>870</v>
+      </c>
+      <c r="D54" t="s">
+        <v>645</v>
+      </c>
+      <c r="E54" t="s">
+        <v>853</v>
+      </c>
+      <c r="F54" t="s">
+        <v>659</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="K54" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>25</v>
+      </c>
+      <c r="C55" t="s">
+        <v>871</v>
+      </c>
+      <c r="D55" t="s">
+        <v>645</v>
+      </c>
+      <c r="E55" t="s">
+        <v>853</v>
+      </c>
+      <c r="F55" t="s">
+        <v>659</v>
+      </c>
+      <c r="J55" t="s">
+        <v>872</v>
+      </c>
+      <c r="K55" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>27</v>
+      </c>
+      <c r="C56" t="s">
+        <v>873</v>
+      </c>
+      <c r="D56" t="s">
+        <v>645</v>
+      </c>
+      <c r="E56" t="s">
+        <v>853</v>
+      </c>
+      <c r="F56" t="s">
+        <v>659</v>
+      </c>
+      <c r="J56" t="s">
+        <v>874</v>
+      </c>
+      <c r="K56" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>44</v>
+      </c>
+      <c r="C57" t="s">
+        <v>875</v>
+      </c>
+      <c r="D57" t="s">
+        <v>645</v>
+      </c>
+      <c r="E57" t="s">
+        <v>853</v>
+      </c>
+      <c r="F57" t="s">
+        <v>659</v>
+      </c>
+      <c r="J57" t="s">
+        <v>876</v>
+      </c>
+      <c r="K57" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>46</v>
+      </c>
+      <c r="C58" t="s">
+        <v>877</v>
+      </c>
+      <c r="D58" t="s">
+        <v>645</v>
+      </c>
+      <c r="E58" t="s">
+        <v>853</v>
+      </c>
+      <c r="F58" t="s">
+        <v>659</v>
+      </c>
+      <c r="J58" t="s">
+        <v>878</v>
+      </c>
+      <c r="K58" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>30</v>
+      </c>
+      <c r="C59" t="s">
+        <v>656</v>
+      </c>
+      <c r="D59" t="s">
+        <v>657</v>
+      </c>
+      <c r="E59" t="s">
+        <v>658</v>
+      </c>
+      <c r="F59" t="s">
+        <v>659</v>
+      </c>
+      <c r="J59" t="s">
+        <v>660</v>
+      </c>
+      <c r="K59" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>580</v>
+      </c>
+      <c r="D60" t="s">
+        <v>581</v>
+      </c>
+      <c r="E60" t="s">
+        <v>614</v>
+      </c>
+      <c r="H60">
+        <v>2000</v>
+      </c>
+      <c r="J60" t="s">
+        <v>582</v>
+      </c>
+      <c r="K60" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>584</v>
+      </c>
+      <c r="D61" t="s">
+        <v>581</v>
+      </c>
+      <c r="E61" t="s">
+        <v>614</v>
+      </c>
+      <c r="H61">
+        <v>2000</v>
+      </c>
+      <c r="J61" t="s">
+        <v>585</v>
+      </c>
+      <c r="K61" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>587</v>
+      </c>
+      <c r="D62" t="s">
+        <v>581</v>
+      </c>
+      <c r="E62" t="s">
+        <v>614</v>
+      </c>
+      <c r="H62">
+        <v>2000</v>
+      </c>
+      <c r="J62" t="s">
+        <v>588</v>
+      </c>
+      <c r="K62" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>4</v>
+      </c>
+      <c r="B63">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>590</v>
+      </c>
+      <c r="D63" t="s">
+        <v>581</v>
+      </c>
+      <c r="E63" t="s">
+        <v>614</v>
+      </c>
+      <c r="H63">
+        <v>2000</v>
+      </c>
+      <c r="J63" t="s">
+        <v>591</v>
+      </c>
+      <c r="K63" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>5</v>
+      </c>
+      <c r="B64">
+        <v>11</v>
+      </c>
+      <c r="C64" t="s">
+        <v>593</v>
+      </c>
+      <c r="D64" t="s">
+        <v>581</v>
+      </c>
+      <c r="E64" t="s">
+        <v>614</v>
+      </c>
+      <c r="H64">
+        <v>2000</v>
+      </c>
+      <c r="J64" t="s">
+        <v>594</v>
+      </c>
+      <c r="K64" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>6</v>
+      </c>
+      <c r="B65">
+        <v>14</v>
+      </c>
+      <c r="C65" t="s">
+        <v>596</v>
+      </c>
+      <c r="D65" t="s">
+        <v>581</v>
+      </c>
+      <c r="E65" t="s">
+        <v>614</v>
+      </c>
+      <c r="H65">
+        <v>2000</v>
+      </c>
+      <c r="J65" t="s">
+        <v>597</v>
+      </c>
+      <c r="K65" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>7</v>
+      </c>
+      <c r="B66">
+        <v>18</v>
+      </c>
+      <c r="C66" t="s">
+        <v>599</v>
+      </c>
+      <c r="D66" t="s">
+        <v>581</v>
+      </c>
+      <c r="E66" t="s">
+        <v>614</v>
+      </c>
+      <c r="H66">
+        <v>2000</v>
+      </c>
+      <c r="J66" t="s">
+        <v>600</v>
+      </c>
+      <c r="K66" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>8</v>
+      </c>
+      <c r="B67">
+        <v>23</v>
+      </c>
+      <c r="C67" t="s">
+        <v>602</v>
+      </c>
+      <c r="D67" t="s">
+        <v>581</v>
+      </c>
+      <c r="E67" t="s">
+        <v>614</v>
+      </c>
+      <c r="H67">
+        <v>2000</v>
+      </c>
+      <c r="J67" t="s">
+        <v>603</v>
+      </c>
+      <c r="K67" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>9</v>
+      </c>
+      <c r="B68">
+        <v>29</v>
+      </c>
+      <c r="C68" t="s">
+        <v>605</v>
+      </c>
+      <c r="D68" t="s">
+        <v>581</v>
+      </c>
+      <c r="E68" t="s">
+        <v>614</v>
+      </c>
+      <c r="H68">
+        <v>2000</v>
+      </c>
+      <c r="J68" t="s">
+        <v>606</v>
+      </c>
+      <c r="K68" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>10</v>
+      </c>
+      <c r="B69">
+        <v>37</v>
+      </c>
+      <c r="C69" t="s">
+        <v>608</v>
+      </c>
+      <c r="D69" t="s">
+        <v>581</v>
+      </c>
+      <c r="E69" t="s">
+        <v>614</v>
+      </c>
+      <c r="H69">
+        <v>2000</v>
+      </c>
+      <c r="J69" t="s">
+        <v>609</v>
+      </c>
+      <c r="K69" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>11</v>
+      </c>
+      <c r="B70">
+        <v>47</v>
+      </c>
+      <c r="C70" t="s">
+        <v>611</v>
+      </c>
+      <c r="D70" t="s">
+        <v>581</v>
+      </c>
+      <c r="E70" t="s">
+        <v>614</v>
+      </c>
+      <c r="H70">
+        <v>2000</v>
+      </c>
+      <c r="J70" t="s">
+        <v>612</v>
+      </c>
+      <c r="K70" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>12</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>615</v>
+      </c>
+      <c r="D71" t="s">
+        <v>581</v>
+      </c>
+      <c r="E71" t="s">
+        <v>643</v>
+      </c>
+      <c r="H71">
+        <v>2000</v>
+      </c>
+      <c r="J71" t="s">
+        <v>616</v>
+      </c>
+      <c r="K71" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>13</v>
+      </c>
+      <c r="B72">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
+        <v>617</v>
+      </c>
+      <c r="D72" t="s">
+        <v>581</v>
+      </c>
+      <c r="E72" t="s">
+        <v>643</v>
+      </c>
+      <c r="H72">
+        <v>2000</v>
+      </c>
+      <c r="J72" t="s">
+        <v>618</v>
+      </c>
+      <c r="K72" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>14</v>
+      </c>
+      <c r="B73">
+        <v>9</v>
+      </c>
+      <c r="C73" t="s">
+        <v>619</v>
+      </c>
+      <c r="D73" t="s">
+        <v>581</v>
+      </c>
+      <c r="E73" t="s">
+        <v>643</v>
+      </c>
+      <c r="H73">
+        <v>2000</v>
+      </c>
+      <c r="J73" t="s">
+        <v>620</v>
+      </c>
+      <c r="K73" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>15</v>
+      </c>
+      <c r="B74">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s">
+        <v>622</v>
+      </c>
+      <c r="D74" t="s">
+        <v>581</v>
+      </c>
+      <c r="E74" t="s">
+        <v>643</v>
+      </c>
+      <c r="H74">
+        <v>2000</v>
+      </c>
+      <c r="J74" t="s">
+        <v>623</v>
+      </c>
+      <c r="K74" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>16</v>
+      </c>
+      <c r="B75">
+        <v>16</v>
+      </c>
+      <c r="C75" t="s">
+        <v>625</v>
+      </c>
+      <c r="D75" t="s">
+        <v>581</v>
+      </c>
+      <c r="E75" t="s">
+        <v>643</v>
+      </c>
+      <c r="H75">
+        <v>2000</v>
+      </c>
+      <c r="J75" t="s">
+        <v>626</v>
+      </c>
+      <c r="K75" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>17</v>
+      </c>
+      <c r="B76">
+        <v>21</v>
+      </c>
+      <c r="C76" t="s">
+        <v>628</v>
+      </c>
+      <c r="D76" t="s">
+        <v>581</v>
+      </c>
+      <c r="E76" t="s">
+        <v>643</v>
+      </c>
+      <c r="H76">
+        <v>2000</v>
+      </c>
+      <c r="J76" t="s">
+        <v>629</v>
+      </c>
+      <c r="K76" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>18</v>
+      </c>
+      <c r="B77">
+        <v>27</v>
+      </c>
+      <c r="C77" t="s">
+        <v>631</v>
+      </c>
+      <c r="D77" t="s">
+        <v>581</v>
+      </c>
+      <c r="E77" t="s">
+        <v>643</v>
+      </c>
+      <c r="H77">
+        <v>2000</v>
+      </c>
+      <c r="J77" t="s">
+        <v>632</v>
+      </c>
+      <c r="K77" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>19</v>
+      </c>
+      <c r="B78">
+        <v>31</v>
+      </c>
+      <c r="C78" t="s">
+        <v>634</v>
+      </c>
+      <c r="D78" t="s">
+        <v>581</v>
+      </c>
+      <c r="E78" t="s">
+        <v>643</v>
+      </c>
+      <c r="H78">
+        <v>2000</v>
+      </c>
+      <c r="J78" t="s">
+        <v>635</v>
+      </c>
+      <c r="K78" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>20</v>
+      </c>
+      <c r="B79">
+        <v>36</v>
+      </c>
+      <c r="C79" t="s">
+        <v>637</v>
+      </c>
+      <c r="D79" t="s">
+        <v>581</v>
+      </c>
+      <c r="E79" t="s">
+        <v>643</v>
+      </c>
+      <c r="H79">
+        <v>2000</v>
+      </c>
+      <c r="J79" t="s">
+        <v>638</v>
+      </c>
+      <c r="K79" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>21</v>
+      </c>
+      <c r="B80">
+        <v>46</v>
+      </c>
+      <c r="C80" t="s">
+        <v>640</v>
+      </c>
+      <c r="D80" t="s">
+        <v>581</v>
+      </c>
+      <c r="E80" t="s">
+        <v>643</v>
+      </c>
+      <c r="H80">
+        <v>2000</v>
+      </c>
+      <c r="J80" t="s">
+        <v>641</v>
+      </c>
+      <c r="K80" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>22</v>
+      </c>
+      <c r="B81">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>664</v>
+      </c>
+      <c r="D81" t="s">
+        <v>581</v>
+      </c>
+      <c r="E81" t="s">
+        <v>684</v>
+      </c>
+      <c r="H81">
+        <v>2000</v>
+      </c>
+      <c r="J81" t="s">
+        <v>665</v>
+      </c>
+      <c r="K81" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>23</v>
+      </c>
+      <c r="B82">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>666</v>
+      </c>
+      <c r="D82" t="s">
+        <v>581</v>
+      </c>
+      <c r="E82" t="s">
+        <v>684</v>
+      </c>
+      <c r="H82">
+        <v>2000</v>
+      </c>
+      <c r="J82" t="s">
+        <v>667</v>
+      </c>
+      <c r="K82" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>24</v>
+      </c>
+      <c r="B83">
+        <v>11</v>
+      </c>
+      <c r="C83" t="s">
+        <v>668</v>
+      </c>
+      <c r="D83" t="s">
+        <v>581</v>
+      </c>
+      <c r="E83" t="s">
+        <v>684</v>
+      </c>
+      <c r="H83">
+        <v>2000</v>
+      </c>
+      <c r="J83" t="s">
+        <v>629</v>
+      </c>
+      <c r="K83" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>25</v>
+      </c>
+      <c r="B84">
+        <v>14</v>
+      </c>
+      <c r="C84" t="s">
+        <v>670</v>
+      </c>
+      <c r="D84" t="s">
+        <v>581</v>
+      </c>
+      <c r="E84" t="s">
+        <v>684</v>
+      </c>
+      <c r="H84">
+        <v>2000</v>
+      </c>
+      <c r="J84" t="s">
+        <v>671</v>
+      </c>
+      <c r="K84" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>26</v>
+      </c>
+      <c r="B85">
+        <v>18</v>
+      </c>
+      <c r="C85" t="s">
+        <v>672</v>
+      </c>
+      <c r="D85" t="s">
+        <v>581</v>
+      </c>
+      <c r="E85" t="s">
+        <v>684</v>
+      </c>
+      <c r="H85">
+        <v>2000</v>
+      </c>
+      <c r="J85" t="s">
+        <v>673</v>
+      </c>
+      <c r="K85" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>27</v>
+      </c>
+      <c r="B86">
+        <v>25</v>
+      </c>
+      <c r="C86" t="s">
+        <v>675</v>
+      </c>
+      <c r="D86" t="s">
+        <v>581</v>
+      </c>
+      <c r="E86" t="s">
+        <v>684</v>
+      </c>
+      <c r="H86">
+        <v>2000</v>
+      </c>
+      <c r="J86" t="s">
+        <v>676</v>
+      </c>
+      <c r="K86" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>28</v>
+      </c>
+      <c r="B87">
+        <v>33</v>
+      </c>
+      <c r="C87" t="s">
+        <v>678</v>
+      </c>
+      <c r="D87" t="s">
+        <v>581</v>
+      </c>
+      <c r="E87" t="s">
+        <v>684</v>
+      </c>
+      <c r="H87">
+        <v>2000</v>
+      </c>
+      <c r="J87" t="s">
+        <v>679</v>
+      </c>
+      <c r="K87" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>29</v>
+      </c>
+      <c r="B88">
+        <v>43</v>
+      </c>
+      <c r="C88" t="s">
+        <v>681</v>
+      </c>
+      <c r="D88" t="s">
+        <v>581</v>
+      </c>
+      <c r="E88" t="s">
+        <v>684</v>
+      </c>
+      <c r="H88">
+        <v>2000</v>
+      </c>
+      <c r="J88" t="s">
+        <v>682</v>
+      </c>
+      <c r="K88" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>30</v>
+      </c>
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="C89" t="s">
+        <v>685</v>
+      </c>
+      <c r="D89" t="s">
+        <v>581</v>
+      </c>
+      <c r="E89" t="s">
+        <v>705</v>
+      </c>
+      <c r="H89">
+        <v>2000</v>
+      </c>
+      <c r="J89" t="s">
+        <v>686</v>
+      </c>
+      <c r="K89" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>31</v>
+      </c>
+      <c r="B90">
+        <v>14</v>
+      </c>
+      <c r="C90" t="s">
+        <v>688</v>
+      </c>
+      <c r="D90" t="s">
+        <v>581</v>
+      </c>
+      <c r="E90" t="s">
+        <v>706</v>
+      </c>
+      <c r="H90">
+        <v>2000</v>
+      </c>
+      <c r="J90" t="s">
+        <v>689</v>
+      </c>
+      <c r="K90" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>32</v>
+      </c>
+      <c r="B91">
+        <v>19</v>
+      </c>
+      <c r="C91" t="s">
+        <v>690</v>
+      </c>
+      <c r="D91" t="s">
+        <v>581</v>
+      </c>
+      <c r="E91" t="s">
+        <v>707</v>
+      </c>
+      <c r="H91">
+        <v>2000</v>
+      </c>
+      <c r="J91" t="s">
+        <v>691</v>
+      </c>
+      <c r="K91" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>33</v>
+      </c>
+      <c r="B92">
+        <v>25</v>
+      </c>
+      <c r="C92" t="s">
+        <v>693</v>
+      </c>
+      <c r="D92" t="s">
+        <v>581</v>
+      </c>
+      <c r="E92" t="s">
+        <v>708</v>
+      </c>
+      <c r="H92">
+        <v>2000</v>
+      </c>
+      <c r="J92" t="s">
+        <v>694</v>
+      </c>
+      <c r="K92" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>34</v>
+      </c>
+      <c r="B93">
+        <v>32</v>
+      </c>
+      <c r="C93" t="s">
+        <v>696</v>
+      </c>
+      <c r="D93" t="s">
+        <v>581</v>
+      </c>
+      <c r="E93" t="s">
+        <v>709</v>
+      </c>
+      <c r="H93">
+        <v>2000</v>
+      </c>
+      <c r="J93" t="s">
+        <v>697</v>
+      </c>
+      <c r="K93" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>35</v>
+      </c>
+      <c r="B94">
+        <v>41</v>
+      </c>
+      <c r="C94" t="s">
+        <v>699</v>
+      </c>
+      <c r="D94" t="s">
+        <v>581</v>
+      </c>
+      <c r="E94" t="s">
+        <v>655</v>
+      </c>
+      <c r="H94">
+        <v>2000</v>
+      </c>
+      <c r="J94" t="s">
+        <v>700</v>
+      </c>
+      <c r="K94" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>36</v>
+      </c>
+      <c r="B95">
+        <v>50</v>
+      </c>
+      <c r="C95" t="s">
+        <v>702</v>
+      </c>
+      <c r="D95" t="s">
+        <v>581</v>
+      </c>
+      <c r="E95" t="s">
+        <v>643</v>
+      </c>
+      <c r="H95">
+        <v>2000</v>
+      </c>
+      <c r="J95" t="s">
+        <v>703</v>
+      </c>
+      <c r="K95" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>37</v>
+      </c>
+      <c r="B96">
+        <v>15</v>
+      </c>
+      <c r="C96" t="s">
+        <v>644</v>
+      </c>
+      <c r="D96" t="s">
+        <v>645</v>
+      </c>
+      <c r="E96" t="s">
+        <v>655</v>
+      </c>
+      <c r="H96">
+        <v>2000</v>
+      </c>
+      <c r="J96" t="s">
+        <v>646</v>
+      </c>
+      <c r="K96" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>38</v>
+      </c>
+      <c r="B97">
+        <v>25</v>
+      </c>
+      <c r="C97" t="s">
+        <v>647</v>
+      </c>
+      <c r="D97" t="s">
+        <v>645</v>
+      </c>
+      <c r="E97" t="s">
+        <v>655</v>
+      </c>
+      <c r="H97">
+        <v>2000</v>
+      </c>
+      <c r="J97" t="s">
+        <v>648</v>
+      </c>
+      <c r="K97" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>39</v>
+      </c>
+      <c r="B98">
+        <v>35</v>
+      </c>
+      <c r="C98" t="s">
+        <v>650</v>
+      </c>
+      <c r="D98" t="s">
+        <v>645</v>
+      </c>
+      <c r="E98" t="s">
+        <v>655</v>
+      </c>
+      <c r="H98">
+        <v>2000</v>
+      </c>
+      <c r="J98" t="s">
+        <v>651</v>
+      </c>
+      <c r="K98" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>40</v>
+      </c>
+      <c r="B99">
+        <v>45</v>
+      </c>
+      <c r="C99" t="s">
+        <v>653</v>
+      </c>
+      <c r="D99" t="s">
+        <v>645</v>
+      </c>
+      <c r="E99" t="s">
+        <v>655</v>
+      </c>
+      <c r="H99">
+        <v>2000</v>
+      </c>
+      <c r="J99" t="s">
+        <v>654</v>
+      </c>
+      <c r="K99" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>41</v>
+      </c>
+      <c r="B100">
+        <v>15</v>
+      </c>
+      <c r="C100" t="s">
+        <v>710</v>
+      </c>
+      <c r="D100" t="s">
+        <v>645</v>
+      </c>
+      <c r="E100" t="s">
+        <v>721</v>
+      </c>
+      <c r="H100">
+        <v>2000</v>
+      </c>
+      <c r="J100" t="s">
+        <v>711</v>
+      </c>
+      <c r="K100" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>42</v>
+      </c>
+      <c r="B101">
+        <v>26</v>
+      </c>
+      <c r="C101" t="s">
+        <v>712</v>
+      </c>
+      <c r="D101" t="s">
+        <v>645</v>
+      </c>
+      <c r="E101" t="s">
+        <v>706</v>
+      </c>
+      <c r="H101">
+        <v>2000</v>
+      </c>
+      <c r="J101" t="s">
+        <v>713</v>
+      </c>
+      <c r="K101" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>43</v>
+      </c>
+      <c r="B102">
+        <v>36</v>
+      </c>
+      <c r="C102" t="s">
+        <v>715</v>
+      </c>
+      <c r="D102" t="s">
+        <v>645</v>
+      </c>
+      <c r="E102" t="s">
+        <v>708</v>
+      </c>
+      <c r="H102">
+        <v>2000</v>
+      </c>
+      <c r="J102" t="s">
+        <v>716</v>
+      </c>
+      <c r="K102" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>44</v>
+      </c>
+      <c r="B103">
+        <v>46</v>
+      </c>
+      <c r="C103" t="s">
+        <v>718</v>
+      </c>
+      <c r="D103" t="s">
+        <v>645</v>
+      </c>
+      <c r="E103" t="s">
+        <v>709</v>
+      </c>
+      <c r="H103">
+        <v>2000</v>
+      </c>
+      <c r="J103" t="s">
+        <v>719</v>
+      </c>
+      <c r="K103" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>45</v>
+      </c>
+      <c r="B104">
+        <v>10</v>
+      </c>
+      <c r="C104" t="s">
+        <v>656</v>
+      </c>
+      <c r="D104" t="s">
+        <v>657</v>
+      </c>
+      <c r="E104" t="s">
+        <v>662</v>
+      </c>
+      <c r="H104">
+        <v>1500</v>
+      </c>
+      <c r="J104" t="s">
+        <v>660</v>
+      </c>
+      <c r="K104" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>46</v>
+      </c>
+      <c r="B105">
+        <v>15</v>
+      </c>
+      <c r="C105" t="s">
+        <v>722</v>
+      </c>
+      <c r="D105" t="s">
+        <v>657</v>
+      </c>
+      <c r="E105" t="s">
+        <v>662</v>
+      </c>
+      <c r="H105">
+        <v>1500</v>
+      </c>
+      <c r="J105" t="s">
+        <v>723</v>
+      </c>
+      <c r="K105" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>47</v>
+      </c>
+      <c r="B106">
+        <v>24</v>
+      </c>
+      <c r="C106" t="s">
+        <v>724</v>
+      </c>
+      <c r="D106" t="s">
+        <v>657</v>
+      </c>
+      <c r="E106" t="s">
+        <v>662</v>
+      </c>
+      <c r="H106">
+        <v>1500</v>
+      </c>
+      <c r="J106" t="s">
+        <v>725</v>
+      </c>
+      <c r="K106" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>48</v>
+      </c>
+      <c r="B107">
+        <v>40</v>
+      </c>
+      <c r="C107" t="s">
+        <v>726</v>
+      </c>
+      <c r="D107" t="s">
+        <v>657</v>
+      </c>
+      <c r="E107" t="s">
+        <v>662</v>
+      </c>
+      <c r="H107">
+        <v>1500</v>
+      </c>
+      <c r="J107" t="s">
+        <v>727</v>
+      </c>
+      <c r="K107" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>49</v>
+      </c>
+      <c r="B108">
+        <v>6</v>
+      </c>
+      <c r="C108" t="s">
+        <v>728</v>
+      </c>
+      <c r="D108" t="s">
+        <v>581</v>
+      </c>
+      <c r="E108" t="s">
+        <v>684</v>
+      </c>
+      <c r="H108">
+        <v>1500</v>
+      </c>
+      <c r="K108" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>50</v>
+      </c>
+      <c r="B109">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
+        <v>730</v>
+      </c>
+      <c r="D109" t="s">
+        <v>581</v>
+      </c>
+      <c r="E109" t="s">
+        <v>731</v>
+      </c>
+      <c r="H109">
+        <v>1500</v>
+      </c>
+      <c r="K109" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>51</v>
+      </c>
+      <c r="B110">
+        <v>11</v>
+      </c>
+      <c r="C110" t="s">
+        <v>732</v>
+      </c>
+      <c r="D110" t="s">
+        <v>581</v>
+      </c>
+      <c r="E110" t="s">
+        <v>752</v>
+      </c>
+      <c r="G110" t="s">
+        <v>750</v>
+      </c>
+      <c r="H110">
+        <v>2000</v>
+      </c>
+      <c r="J110" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>52</v>
+      </c>
+      <c r="B111">
+        <v>21</v>
+      </c>
+      <c r="C111" t="s">
+        <v>734</v>
+      </c>
+      <c r="D111" t="s">
+        <v>581</v>
+      </c>
+      <c r="E111" t="s">
+        <v>752</v>
+      </c>
+      <c r="G111" t="s">
+        <v>750</v>
+      </c>
+      <c r="H111">
+        <v>2000</v>
+      </c>
+      <c r="J111" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>53</v>
+      </c>
+      <c r="B112">
+        <v>33</v>
+      </c>
+      <c r="C112" t="s">
+        <v>735</v>
+      </c>
+      <c r="D112" t="s">
+        <v>581</v>
+      </c>
+      <c r="E112" t="s">
+        <v>752</v>
+      </c>
+      <c r="G112" t="s">
+        <v>750</v>
+      </c>
+      <c r="H112">
+        <v>2000</v>
+      </c>
+      <c r="J112" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>54</v>
+      </c>
+      <c r="B113">
+        <v>42</v>
+      </c>
+      <c r="C113" t="s">
+        <v>736</v>
+      </c>
+      <c r="D113" t="s">
+        <v>581</v>
+      </c>
+      <c r="E113" t="s">
+        <v>752</v>
+      </c>
+      <c r="G113" t="s">
+        <v>750</v>
+      </c>
+      <c r="H113">
+        <v>2000</v>
+      </c>
+      <c r="J113" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>55</v>
+      </c>
+      <c r="B114">
+        <v>23</v>
+      </c>
+      <c r="C114" t="s">
+        <v>737</v>
+      </c>
+      <c r="D114" t="s">
+        <v>645</v>
+      </c>
+      <c r="E114" t="s">
+        <v>752</v>
+      </c>
+      <c r="G114" t="s">
+        <v>751</v>
+      </c>
+      <c r="H114">
+        <v>2000</v>
+      </c>
+      <c r="J114" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>56</v>
+      </c>
+      <c r="B115">
+        <v>35</v>
+      </c>
+      <c r="C115" t="s">
+        <v>738</v>
+      </c>
+      <c r="D115" t="s">
+        <v>645</v>
+      </c>
+      <c r="E115" t="s">
+        <v>752</v>
+      </c>
+      <c r="G115" t="s">
+        <v>751</v>
+      </c>
+      <c r="H115">
+        <v>2000</v>
+      </c>
+      <c r="J115" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>57</v>
+      </c>
+      <c r="B116">
+        <v>45</v>
+      </c>
+      <c r="C116" t="s">
+        <v>739</v>
+      </c>
+      <c r="D116" t="s">
+        <v>645</v>
+      </c>
+      <c r="E116" t="s">
+        <v>752</v>
+      </c>
+      <c r="G116" t="s">
+        <v>751</v>
+      </c>
+      <c r="H116">
+        <v>2000</v>
+      </c>
+      <c r="J116" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>58</v>
+      </c>
+      <c r="B117">
+        <v>30</v>
+      </c>
+      <c r="C117" t="s">
+        <v>740</v>
+      </c>
+      <c r="D117" t="s">
+        <v>741</v>
+      </c>
+      <c r="E117" t="s">
+        <v>706</v>
+      </c>
+      <c r="J117" t="s">
+        <v>742</v>
+      </c>
+      <c r="K117" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>59</v>
+      </c>
+      <c r="B118">
+        <v>39</v>
+      </c>
+      <c r="C118" t="s">
+        <v>744</v>
+      </c>
+      <c r="D118" t="s">
+        <v>741</v>
+      </c>
+      <c r="E118" t="s">
+        <v>706</v>
+      </c>
+      <c r="J118" t="s">
+        <v>745</v>
+      </c>
+      <c r="K118" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>60</v>
+      </c>
+      <c r="B119">
+        <v>48</v>
+      </c>
+      <c r="C119" t="s">
+        <v>747</v>
+      </c>
+      <c r="D119" t="s">
+        <v>741</v>
+      </c>
+      <c r="E119" t="s">
+        <v>706</v>
+      </c>
+      <c r="J119" t="s">
+        <v>748</v>
+      </c>
+      <c r="K119" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>61</v>
+      </c>
+      <c r="B120">
+        <v>24</v>
+      </c>
+      <c r="C120" t="s">
+        <v>753</v>
+      </c>
+      <c r="D120" t="s">
+        <v>645</v>
+      </c>
+      <c r="E120" t="s">
+        <v>662</v>
+      </c>
+      <c r="F120" t="s">
+        <v>758</v>
+      </c>
+      <c r="H120">
+        <v>2000</v>
+      </c>
+      <c r="J120">
+        <v>37</v>
+      </c>
+      <c r="K120" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>62</v>
+      </c>
+      <c r="B121">
+        <v>34</v>
+      </c>
+      <c r="C121" t="s">
+        <v>755</v>
+      </c>
+      <c r="D121" t="s">
+        <v>645</v>
+      </c>
+      <c r="E121" t="s">
+        <v>662</v>
+      </c>
+      <c r="F121" t="s">
+        <v>758</v>
+      </c>
+      <c r="H121">
+        <v>2000</v>
+      </c>
+      <c r="J121">
+        <v>52</v>
+      </c>
+      <c r="K121" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>63</v>
+      </c>
+      <c r="B122">
+        <v>44</v>
+      </c>
+      <c r="C122" t="s">
+        <v>756</v>
+      </c>
+      <c r="D122" t="s">
+        <v>645</v>
+      </c>
+      <c r="E122" t="s">
+        <v>662</v>
+      </c>
+      <c r="F122" t="s">
+        <v>758</v>
+      </c>
+      <c r="H122">
+        <v>2000</v>
+      </c>
+      <c r="J122">
+        <v>67</v>
+      </c>
+      <c r="K122" t="s">
+        <v>757</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3265,7 +7258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K345" sqref="K345"/>
     </sheetView>
   </sheetViews>
